--- a/data/data_villages.xlsx
+++ b/data/data_villages.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23607"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E229AE28-E5AD-4D87-8D52-EC5DEF702F53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\-\Documents\coding\Git\koloina-thierry\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6770"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline solar mamas &amp; househol" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,15 +47,6 @@
     <t>Année</t>
   </si>
   <si>
-    <t>Number of solar mamas</t>
-  </si>
-  <si>
-    <t>Number of households using solar in solar mamas' villages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of households using solar thanks to entrepreneurship development </t>
-  </si>
-  <si>
     <t>Statut</t>
   </si>
   <si>
@@ -158,17 +153,26 @@
   </si>
   <si>
     <t>Promotion 6</t>
+  </si>
+  <si>
+    <t>Nombre de FIS</t>
+  </si>
+  <si>
+    <t>Nombre de ménages bénéficiaires</t>
+  </si>
+  <si>
+    <t>bénéficiaires de l'entrepreneuriat solaire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.00000000000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,7 +219,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -228,14 +232,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Milliers 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -252,7 +256,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -327,23 +331,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -379,23 +366,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,26 +541,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="65.25" customHeight="1">
+    <row r="1" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -607,21 +577,21 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
       </c>
       <c r="B2" s="4">
         <v>47.320858999999999</v>
@@ -630,7 +600,7 @@
         <v>-20.358813000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3">
         <v>2019</v>
@@ -645,12 +615,12 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>47.279657999999998</v>
@@ -659,7 +629,7 @@
         <v>-22.582158</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <v>2019</v>
@@ -674,12 +644,12 @@
         <v>50</v>
       </c>
       <c r="I3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>14</v>
       </c>
       <c r="B4" s="4">
         <v>49.430089000000002</v>
@@ -688,7 +658,7 @@
         <v>-14.349857999999999</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3">
         <v>2019</v>
@@ -701,12 +671,12 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <v>44.390922000000003</v>
@@ -715,7 +685,7 @@
         <v>-19.549944</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3">
         <v>2019</v>
@@ -730,12 +700,12 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
         <v>44.227694</v>
@@ -744,7 +714,7 @@
         <v>-24.487361</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3">
         <v>2019</v>
@@ -757,12 +727,12 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4">
         <v>44.05</v>
@@ -771,7 +741,7 @@
         <v>-20.651</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3">
         <v>2019</v>
@@ -784,12 +754,12 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4">
         <v>44.318880999999998</v>
@@ -798,7 +768,7 @@
         <v>-23.559032999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3">
         <v>2019</v>
@@ -811,12 +781,12 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4">
         <v>44.172794444399997</v>
@@ -825,7 +795,7 @@
         <v>-23.501813888899999</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3">
         <v>2019</v>
@@ -836,12 +806,12 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4">
         <v>48.340355000000002</v>
@@ -850,7 +820,7 @@
         <v>-13.389163</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3">
         <v>2019</v>
@@ -861,12 +831,12 @@
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4">
         <v>48.354999999999997</v>
@@ -875,7 +845,7 @@
         <v>-13.409661</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3">
         <v>2019</v>
@@ -886,12 +856,12 @@
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
       <c r="I11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4">
         <v>47.321488000000002</v>
@@ -900,7 +870,7 @@
         <v>-19.394922999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
         <v>2019</v>
@@ -911,12 +881,12 @@
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="4">
         <v>47.320858999999999</v>
@@ -925,7 +895,7 @@
         <v>-20.358813000000001</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3">
         <v>2020</v>
@@ -940,9 +910,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4">
         <v>47.279657999999998</v>
@@ -951,7 +921,7 @@
         <v>-22.582158</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>2020</v>
@@ -966,9 +936,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4">
         <v>49.430089000000002</v>
@@ -977,7 +947,7 @@
         <v>-14.349857999999999</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3">
         <v>2020</v>
@@ -992,9 +962,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4">
         <v>44.390922000000003</v>
@@ -1003,7 +973,7 @@
         <v>-19.549944</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3">
         <v>2020</v>
@@ -1018,9 +988,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>44.227694</v>
@@ -1029,7 +999,7 @@
         <v>-24.487361</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E17" s="3">
         <v>2020</v>
@@ -1042,9 +1012,9 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
         <v>44.05</v>
@@ -1053,7 +1023,7 @@
         <v>-20.651</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E18" s="3">
         <v>2020</v>
@@ -1066,9 +1036,9 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4">
         <v>44.318880999999998</v>
@@ -1077,7 +1047,7 @@
         <v>-23.559032999999999</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3">
         <v>2020</v>
@@ -1090,9 +1060,9 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4">
         <v>44.172794444399997</v>
@@ -1101,7 +1071,7 @@
         <v>-23.501813888899999</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E20" s="3">
         <v>2020</v>
@@ -1114,9 +1084,9 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
         <v>48.340355000000002</v>
@@ -1125,7 +1095,7 @@
         <v>-13.389163</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E21" s="3">
         <v>2020</v>
@@ -1139,9 +1109,9 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4">
         <v>48.354999999999997</v>
@@ -1150,7 +1120,7 @@
         <v>-13.409661</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E22" s="3">
         <v>2020</v>
@@ -1164,9 +1134,9 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4">
         <v>47.321488000000002</v>
@@ -1175,7 +1145,7 @@
         <v>-19.394922999999999</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E23" s="3">
         <v>2020</v>
@@ -1189,9 +1159,9 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B24" s="4">
         <v>47.320858999999999</v>
@@ -1200,7 +1170,7 @@
         <v>-20.358813000000001</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E24" s="3">
         <v>2021</v>
@@ -1215,9 +1185,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B25" s="4">
         <v>47.279657999999998</v>
@@ -1226,7 +1196,7 @@
         <v>-22.582158</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="3">
         <v>2021</v>
@@ -1241,9 +1211,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B26" s="4">
         <v>49.430089000000002</v>
@@ -1252,7 +1222,7 @@
         <v>-14.349857999999999</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E26" s="3">
         <v>2021</v>
@@ -1267,9 +1237,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B27" s="4">
         <v>44.390922000000003</v>
@@ -1278,7 +1248,7 @@
         <v>-19.549944</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E27" s="3">
         <v>2021</v>
@@ -1293,9 +1263,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B28" s="4">
         <v>44.227694</v>
@@ -1304,7 +1274,7 @@
         <v>-24.487361</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E28" s="3">
         <v>2021</v>
@@ -1319,9 +1289,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B29" s="4">
         <v>44.05</v>
@@ -1330,7 +1300,7 @@
         <v>-20.651</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E29" s="3">
         <v>2021</v>
@@ -1343,9 +1313,9 @@
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B30" s="4">
         <v>44.318880999999998</v>
@@ -1354,7 +1324,7 @@
         <v>-23.559032999999999</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E30" s="3">
         <v>2021</v>
@@ -1369,9 +1339,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B31" s="4">
         <v>44.172794444399997</v>
@@ -1380,7 +1350,7 @@
         <v>-23.501813888899999</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E31" s="3">
         <v>2021</v>
@@ -1395,9 +1365,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B32" s="4">
         <v>48.340355000000002</v>
@@ -1406,7 +1376,7 @@
         <v>-13.389163</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E32" s="3">
         <v>2021</v>
@@ -1420,9 +1390,9 @@
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B33" s="4">
         <v>48.354999999999997</v>
@@ -1431,7 +1401,7 @@
         <v>-13.409661</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E33" s="3">
         <v>2021</v>
@@ -1445,9 +1415,9 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B34" s="4">
         <v>47.321488000000002</v>
@@ -1456,7 +1426,7 @@
         <v>-19.394922999999999</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E34" s="3">
         <v>2021</v>
@@ -1470,9 +1440,9 @@
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35" s="4">
         <v>44.2351694444</v>
@@ -1481,7 +1451,7 @@
         <v>-18.954180555600001</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E35" s="3">
         <v>2021</v>
@@ -1494,9 +1464,9 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B36" s="4">
         <v>44.335973603299998</v>
@@ -1505,7 +1475,7 @@
         <v>-18.778107806400001</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E36" s="3">
         <v>2021</v>
@@ -1518,9 +1488,9 @@
       </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B37" s="4">
         <v>50.000070000000001</v>
@@ -1529,7 +1499,7 @@
         <v>-15.76618</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E37" s="3">
         <v>2021</v>
@@ -1542,9 +1512,9 @@
       </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B38" s="4">
         <v>44.350041666700001</v>
@@ -1553,7 +1523,7 @@
         <v>-20.180791666699999</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E38" s="3">
         <v>2021</v>
@@ -1566,9 +1536,9 @@
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4">
         <v>48.857286111100002</v>
@@ -1577,7 +1547,7 @@
         <v>-13.041455555600001</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E39" s="3">
         <v>2021</v>
@@ -1590,9 +1560,9 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B40" s="4">
         <v>47.498860000000001</v>
@@ -1601,7 +1571,7 @@
         <v>-21.208010000000002</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E40" s="3">
         <v>2021</v>
@@ -1614,9 +1584,9 @@
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41" s="4">
         <v>47.469830000000002</v>
@@ -1625,7 +1595,7 @@
         <v>-21.30339</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E41" s="3">
         <v>2021</v>
@@ -1638,9 +1608,9 @@
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E42" s="3">
         <v>2021</v>
@@ -1651,9 +1621,9 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B43" s="4">
         <v>47.320858999999999</v>
@@ -1662,7 +1632,7 @@
         <v>-20.358813000000001</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E43" s="3">
         <v>2022</v>
@@ -1677,12 +1647,12 @@
         <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44" s="4">
         <v>47.279657999999998</v>
@@ -1691,7 +1661,7 @@
         <v>-22.582158</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="3">
         <v>2022</v>
@@ -1706,12 +1676,12 @@
         <v>50</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B45" s="4">
         <v>49.430089000000002</v>
@@ -1720,7 +1690,7 @@
         <v>-14.349857999999999</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E45" s="3">
         <v>2022</v>
@@ -1735,12 +1705,12 @@
         <v>100</v>
       </c>
       <c r="I45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B46" s="4">
         <v>44.390922000000003</v>
@@ -1749,7 +1719,7 @@
         <v>-19.549944</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E46" s="3">
         <v>2022</v>
@@ -1764,12 +1734,12 @@
         <v>150</v>
       </c>
       <c r="I46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B47" s="4">
         <v>44.227694</v>
@@ -1778,7 +1748,7 @@
         <v>-24.487361</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E47" s="3">
         <v>2022</v>
@@ -1793,12 +1763,12 @@
         <v>50</v>
       </c>
       <c r="I47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B48" s="4">
         <v>44.05</v>
@@ -1807,7 +1777,7 @@
         <v>-20.651</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E48" s="3">
         <v>2022</v>
@@ -1820,12 +1790,12 @@
       </c>
       <c r="H48" s="3"/>
       <c r="I48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B49" s="4">
         <v>44.318880999999998</v>
@@ -1834,7 +1804,7 @@
         <v>-23.559032999999999</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E49" s="3">
         <v>2022</v>
@@ -1849,12 +1819,12 @@
         <v>50</v>
       </c>
       <c r="I49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B50" s="4">
         <v>44.172794444399997</v>
@@ -1863,7 +1833,7 @@
         <v>-23.501813888899999</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E50" s="3">
         <v>2022</v>
@@ -1878,12 +1848,12 @@
         <v>50</v>
       </c>
       <c r="I50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B51" s="4">
         <v>48.340355000000002</v>
@@ -1892,7 +1862,7 @@
         <v>-13.389163</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E51" s="3">
         <v>2022</v>
@@ -1906,12 +1876,12 @@
       </c>
       <c r="H51" s="3"/>
       <c r="I51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B52" s="4">
         <v>48.354999999999997</v>
@@ -1920,7 +1890,7 @@
         <v>-13.409661</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E52" s="3">
         <v>2022</v>
@@ -1934,12 +1904,12 @@
       </c>
       <c r="H52" s="3"/>
       <c r="I52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B53" s="4">
         <v>47.321488000000002</v>
@@ -1948,7 +1918,7 @@
         <v>-19.394922999999999</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E53" s="3">
         <v>2022</v>
@@ -1962,12 +1932,12 @@
       </c>
       <c r="H53" s="3"/>
       <c r="I53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B54" s="4">
         <v>44.2351694444</v>
@@ -1976,7 +1946,7 @@
         <v>-18.954180555600001</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E54" s="3">
         <v>2022</v>
@@ -1989,12 +1959,12 @@
       </c>
       <c r="H54" s="3"/>
       <c r="I54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B55" s="4">
         <v>44.335973603299998</v>
@@ -2003,7 +1973,7 @@
         <v>-18.778107806400001</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E55" s="3">
         <v>2022</v>
@@ -2016,12 +1986,12 @@
       </c>
       <c r="H55" s="3"/>
       <c r="I55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B56" s="4">
         <v>50.000070000000001</v>
@@ -2030,7 +2000,7 @@
         <v>-15.76618</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E56" s="3">
         <v>2022</v>
@@ -2043,12 +2013,12 @@
       </c>
       <c r="H56" s="3"/>
       <c r="I56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B57" s="4">
         <v>44.350041666700001</v>
@@ -2057,7 +2027,7 @@
         <v>-20.180791666699999</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E57" s="3">
         <v>2022</v>
@@ -2070,12 +2040,12 @@
       </c>
       <c r="H57" s="3"/>
       <c r="I57" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B58" s="4">
         <v>48.857286111100002</v>
@@ -2084,7 +2054,7 @@
         <v>-13.041455555600001</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E58" s="3">
         <v>2022</v>
@@ -2097,12 +2067,12 @@
       </c>
       <c r="H58" s="3"/>
       <c r="I58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B59" s="4">
         <v>47.498860000000001</v>
@@ -2111,7 +2081,7 @@
         <v>-21.208010000000002</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E59" s="3">
         <v>2022</v>
@@ -2124,12 +2094,12 @@
       </c>
       <c r="H59" s="3"/>
       <c r="I59" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B60" s="4">
         <v>47.469830000000002</v>
@@ -2138,7 +2108,7 @@
         <v>-21.30339</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E60" s="3">
         <v>2022</v>
@@ -2151,12 +2121,12 @@
       </c>
       <c r="H60" s="3"/>
       <c r="I60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E61" s="3">
         <v>2022</v>
@@ -2170,9 +2140,9 @@
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E62" s="3">
         <v>2022</v>
@@ -2186,9 +2156,9 @@
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E63" s="3">
         <v>2022</v>
